--- a/123_convert_xlsx.xlsx
+++ b/123_convert_xlsx.xlsx
@@ -126,34 +126,28 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="B2">
-        <v>262028</v>
+        <v>238385</v>
       </c>
       <c r="C2">
-        <v>340189</v>
+        <v>41727</v>
       </c>
       <c r="D2">
-        <v>396133</v>
+        <v>341388</v>
       </c>
       <c r="E2">
-        <v>445202</v>
+        <v>381541</v>
       </c>
       <c r="F2">
-        <v>267996</v>
+        <v>426050</v>
       </c>
       <c r="G2">
-        <v>413048</v>
+        <v>406224</v>
       </c>
       <c r="H2">
-        <v>525942</v>
-      </c>
-      <c r="I2">
-        <v>415767</v>
-      </c>
-      <c r="J2">
-        <v>416614</v>
+        <v>501930</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -199,34 +193,28 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="B5">
-        <v>350832</v>
+        <v>390846</v>
       </c>
       <c r="C5">
-        <v>632056</v>
+        <v>665175</v>
       </c>
       <c r="D5">
-        <v>822597</v>
+        <v>63008</v>
       </c>
       <c r="E5">
-        <v>945565</v>
+        <v>920700</v>
       </c>
       <c r="F5">
-        <v>1029172</v>
+        <v>853379</v>
       </c>
       <c r="G5">
-        <v>1162302</v>
+        <v>810234</v>
       </c>
       <c r="H5">
-        <v>1140391</v>
-      </c>
-      <c r="I5">
-        <v>1207732</v>
-      </c>
-      <c r="J5">
-        <v>664113</v>
+        <v>815155</v>
       </c>
     </row>
   </sheetData>

--- a/123_convert_xlsx.xlsx
+++ b/123_convert_xlsx.xlsx
@@ -129,25 +129,25 @@
         <v>256</v>
       </c>
       <c r="B2">
-        <v>238385</v>
+        <v>272024</v>
       </c>
       <c r="C2">
-        <v>41727</v>
+        <v>291918</v>
       </c>
       <c r="D2">
-        <v>341388</v>
+        <v>282919</v>
       </c>
       <c r="E2">
-        <v>381541</v>
+        <v>435379</v>
       </c>
       <c r="F2">
-        <v>426050</v>
+        <v>453204</v>
       </c>
       <c r="G2">
-        <v>406224</v>
+        <v>446792</v>
       </c>
       <c r="H2">
-        <v>501930</v>
+        <v>400616</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -196,25 +196,25 @@
         <v>256</v>
       </c>
       <c r="B5">
-        <v>390846</v>
+        <v>406224</v>
       </c>
       <c r="C5">
-        <v>665175</v>
+        <v>584437</v>
       </c>
       <c r="D5">
-        <v>63008</v>
+        <v>729333</v>
       </c>
       <c r="E5">
-        <v>920700</v>
+        <v>839370</v>
       </c>
       <c r="F5">
-        <v>853379</v>
+        <v>797595</v>
       </c>
       <c r="G5">
-        <v>810234</v>
+        <v>1127616</v>
       </c>
       <c r="H5">
-        <v>815155</v>
+        <v>1132372</v>
       </c>
     </row>
   </sheetData>

--- a/123_convert_xlsx.xlsx
+++ b/123_convert_xlsx.xlsx
@@ -129,25 +129,25 @@
         <v>256</v>
       </c>
       <c r="B2">
-        <v>272024</v>
+        <v>226948</v>
       </c>
       <c r="C2">
-        <v>291918</v>
+        <v>337737</v>
       </c>
       <c r="D2">
-        <v>282919</v>
+        <v>302613</v>
       </c>
       <c r="E2">
-        <v>435379</v>
+        <v>409633</v>
       </c>
       <c r="F2">
-        <v>453204</v>
+        <v>242422</v>
       </c>
       <c r="G2">
-        <v>446792</v>
+        <v>456285</v>
       </c>
       <c r="H2">
-        <v>400616</v>
+        <v>375404</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -196,25 +196,25 @@
         <v>256</v>
       </c>
       <c r="B5">
-        <v>406224</v>
+        <v>478447</v>
       </c>
       <c r="C5">
-        <v>584437</v>
+        <v>805373</v>
       </c>
       <c r="D5">
-        <v>729333</v>
+        <v>785345</v>
       </c>
       <c r="E5">
-        <v>839370</v>
+        <v>1062876</v>
       </c>
       <c r="F5">
-        <v>797595</v>
+        <v>1212962</v>
       </c>
       <c r="G5">
-        <v>1127616</v>
+        <v>1249666</v>
       </c>
       <c r="H5">
-        <v>1132372</v>
+        <v>1293317</v>
       </c>
     </row>
   </sheetData>
